--- a/MIDI_RS232/MIDI_RS232_bom.xlsx
+++ b/MIDI_RS232/MIDI_RS232_bom.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/MIDI_RS232/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1767E3CF-B796-C243-90F4-BEF91E718D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30A4DA2-5F89-0D4A-9052-F02E9B1302F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="760" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
   <sheets>
-    <sheet name="MIDITeensy3" sheetId="1" r:id="rId1"/>
+    <sheet name="MIDI_RS232" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MIDITeensy3!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MIDI_RS232!$A$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>U1</t>
   </si>
@@ -157,18 +157,6 @@
     <t>R6</t>
   </si>
   <si>
-    <t>R1, R2, R3, R8</t>
-  </si>
-  <si>
-    <t>R5, R7</t>
-  </si>
-  <si>
-    <t>Do not install</t>
-  </si>
-  <si>
-    <t>D2, D3</t>
-  </si>
-  <si>
     <t>C1, C2, C4, C5</t>
   </si>
   <si>
@@ -178,64 +166,64 @@
     <t>C6</t>
   </si>
   <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>3mm LED</t>
+  </si>
+  <si>
+    <t>DB9 Female Socket PCB</t>
+  </si>
+  <si>
+    <t>DB9</t>
+  </si>
+  <si>
+    <t>J1, J2</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/18/40_c091_abd_e-75918.pdf</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>DIP-8 W7.62mm IC socket round pins</t>
+  </si>
+  <si>
+    <t>DIP8</t>
+  </si>
+  <si>
+    <t>DIP-16 W7.62mm IC socket round pins</t>
+  </si>
+  <si>
+    <t>DIP16</t>
+  </si>
+  <si>
+    <t>Capacitor, 1uf 25V</t>
+  </si>
+  <si>
+    <t>1uf*25V</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R8, R5, R7</t>
+  </si>
+  <si>
+    <t>D2, D3, D4</t>
+  </si>
+  <si>
+    <t>100uf*25V</t>
+  </si>
+  <si>
     <t>Capacitor, 100uf 25V</t>
-  </si>
-  <si>
-    <t>100uf*25V</t>
-  </si>
-  <si>
-    <t>Capacitor, 10uf 25V</t>
-  </si>
-  <si>
-    <t>10uf*25V</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>3mm LED</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>DB9 Female Socket PCB</t>
-  </si>
-  <si>
-    <t>DB9</t>
-  </si>
-  <si>
-    <t>J1, J2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/18/40_c091_abd_e-75918.pdf</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>DIP-8 W7.62mm IC socket round pins</t>
-  </si>
-  <si>
-    <t>DIP8</t>
-  </si>
-  <si>
-    <t>DIP-16 W7.62mm IC socket round pins</t>
-  </si>
-  <si>
-    <t>DIP16</t>
   </si>
 </sst>
 </file>
@@ -465,13 +453,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>191642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457675</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>189121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -825,10 +813,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AC44"/>
+  <dimension ref="A2:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,7 +957,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>19</v>
@@ -984,34 +972,34 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1020,10 +1008,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
@@ -1032,10 +1020,10 @@
         <v>21</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>43</v>
@@ -1050,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
@@ -1065,260 +1053,230 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="3">
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" t="s">
+        <v>53</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="V31" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB31">
+        <v>5</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="R33" t="s">
-        <v>62</v>
-      </c>
-      <c r="S33" t="s">
-        <v>63</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="V33" t="s">
-        <v>64</v>
-      </c>
-      <c r="W33" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB33">
-        <v>5</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:29" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/MIDI_RS232/MIDI_RS232_bom.xlsx
+++ b/MIDI_RS232/MIDI_RS232_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/MIDI_RS232/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30A4DA2-5F89-0D4A-9052-F02E9B1302F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B76B6F1-FB21-E741-B8EE-65250B24016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="760" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
+    <workbookView xWindow="740" yWindow="880" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="MIDI_RS232" sheetId="1" r:id="rId1"/>
@@ -220,10 +220,10 @@
     <t>D2, D3, D4</t>
   </si>
   <si>
-    <t>100uf*25V</t>
-  </si>
-  <si>
-    <t>Capacitor, 100uf 25V</t>
+    <t>10uf*25V</t>
+  </si>
+  <si>
+    <t>Capacitor, 10uf 25V</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
   <dimension ref="A2:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
